--- a/biology/Médecine/1762_en_santé_et_médecine/1762_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1762_en_santé_et_médecine/1762_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1762_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1762_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1762 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1762_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1762_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>10 janvier : ouverture de l’école vétérinaire de Lyon par Claude Bourgelat[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>10 janvier : ouverture de l’école vétérinaire de Lyon par Claude Bourgelat.</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1762_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1762_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,9 +555,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Antoine Baumé (1728-1804) publie Éléments de pharmacie[2].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Antoine Baumé (1728-1804) publie Éléments de pharmacie.</t>
         </is>
       </c>
     </row>
@@ -553,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1762_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1762_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,10 +587,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1er février : Andrea Savaresi (mort en 1810), médecin, naturaliste et minéralogiste italien[3].
-23 mai : René-Nicolas Dufriche Desgenettes (mort en 1837), médecin militaire français[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1er février : Andrea Savaresi (mort en 1810), médecin, naturaliste et minéralogiste italien.
+23 mai : René-Nicolas Dufriche Desgenettes (mort en 1837), médecin militaire français.
 12 août : Christoph Wilhelm Hufeland (mort en 1836), médecin allemand.</t>
         </is>
       </c>
@@ -585,7 +603,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1762_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1762_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -603,10 +621,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>26 février : Vitaliano Donati (né en 1717), médecin, archéologue et botaniste italien[5].
-28 mai : Charles-Augustin Vandermonde (né en 1727), médecin français, théoricien de l'hygiénisme et de l'eugénisme, et l'un des pères du journalisme médical[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>26 février : Vitaliano Donati (né en 1717), médecin, archéologue et botaniste italien.
+28 mai : Charles-Augustin Vandermonde (né en 1727), médecin français, théoricien de l'hygiénisme et de l'eugénisme, et l'un des pères du journalisme médical.
 30 septembre : Jacques Daviel (né en 1693), chirurgien et ophtalmologue français, premier à avoir réussi une opération de la cataracte.
 15 décembre : Charles Cheynet (né en 1668), médecin, magistrat, érudit, mathématicien et musicologue français.</t>
         </is>
